--- a/data/trans_camb/P5_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P5_R-Provincia-trans_camb.xlsx
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,32; 25,83</t>
+          <t>10,46; 25,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-20,43; -10,44</t>
+          <t>-21,22; -10,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,63; 39,24</t>
+          <t>24,66; 39,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,93; -8,55</t>
+          <t>-18,2; -8,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,16; 30,05</t>
+          <t>19,04; 29,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-18,01; -10,58</t>
+          <t>-18,28; -11,13</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>46,75; 175,46</t>
+          <t>43,22; 163,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-93,37; -67,63</t>
+          <t>-92,61; -64,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>109,55; 304,9</t>
+          <t>118,54; 292,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-88,28; -60,28</t>
+          <t>-87,45; -60,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>95,91; 194,84</t>
+          <t>90,52; 190,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-87,77; -69,66</t>
+          <t>-88,11; -70,38</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 12,34</t>
+          <t>-0,87; 11,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,62; 27,8</t>
+          <t>14,71; 27,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-23,56; -11,64</t>
+          <t>-23,99; -12,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,43; 11,53</t>
+          <t>-0,28; 11,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,8; 22,02</t>
+          <t>9,86; 22,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,56; -17,45</t>
+          <t>-27,77; -17,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 10,48</t>
+          <t>1,59; 9,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,39; 22,63</t>
+          <t>14,58; 23,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-24,58; -16,18</t>
+          <t>-24,59; -16,79</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 41,97</t>
+          <t>-1,9; 40,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>42,46; 95,6</t>
+          <t>40,19; 93,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-67,2; -38,78</t>
+          <t>-67,79; -39,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,11; 35,08</t>
+          <t>-0,74; 35,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,51; 67,14</t>
+          <t>25,7; 71,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-71,17; -52,86</t>
+          <t>-71,41; -54,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,65; 32,64</t>
+          <t>4,75; 31,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>36,16; 70,59</t>
+          <t>40,02; 73,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-67,03; -50,39</t>
+          <t>-66,87; -51,1</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,51; 30,96</t>
+          <t>16,87; 30,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,92; 15,98</t>
+          <t>3,11; 16,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 8,63</t>
+          <t>-4,36; 8,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,08; 21,0</t>
+          <t>6,04; 21,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,62; -3,01</t>
+          <t>-17,98; -3,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-23,74; -11,3</t>
+          <t>-23,81; -10,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,54; 23,94</t>
+          <t>12,56; 23,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 4,33</t>
+          <t>-5,53; 3,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-12,37; -3,29</t>
+          <t>-12,27; -2,97</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>60,23; 173,27</t>
+          <t>66,39; 170,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,84; 89,11</t>
+          <t>11,29; 84,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-17,59; 46,25</t>
+          <t>-17,32; 46,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,52; 59,49</t>
+          <t>14,63; 61,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,11; -8,62</t>
+          <t>-41,79; -8,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-55,48; -31,57</t>
+          <t>-55,82; -30,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>40,55; 85,53</t>
+          <t>38,08; 86,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-17,33; 15,58</t>
+          <t>-17,0; 14,28</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-36,9; -11,64</t>
+          <t>-36,85; -11,1</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,56; 15,1</t>
+          <t>2,64; 15,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 8,41</t>
+          <t>-5,01; 8,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-16,25; -2,33</t>
+          <t>-15,76; -1,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,22; 23,65</t>
+          <t>12,04; 23,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,25; 18,12</t>
+          <t>4,53; 18,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,31; 1,54</t>
+          <t>-10,65; 0,96</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,37; 17,66</t>
+          <t>9,03; 17,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,56; 11,11</t>
+          <t>2,27; 11,96</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-11,35; -2,02</t>
+          <t>-11,5; -1,71</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,92; 60,09</t>
+          <t>7,94; 61,22</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-16,75; 32,72</t>
+          <t>-15,24; 32,74</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-49,18; -7,63</t>
+          <t>-48,01; -4,92</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>44,79; 110,87</t>
+          <t>41,95; 111,36</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>16,23; 85,46</t>
+          <t>16,0; 84,27</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-37,04; 7,77</t>
+          <t>-38,0; 4,79</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>31,82; 72,64</t>
+          <t>30,41; 73,03</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,28; 44,71</t>
+          <t>7,42; 48,65</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-39,42; -7,54</t>
+          <t>-39,29; -6,48</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>12,12; 32,0</t>
+          <t>13,69; 31,88</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-32,09; -14,12</t>
+          <t>-32,98; -15,4</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-49,9; -35,04</t>
+          <t>-49,61; -34,42</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,77; 27,35</t>
+          <t>7,85; 27,19</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-29,52; -10,93</t>
+          <t>-28,68; -10,88</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-49,11; -35,34</t>
+          <t>-49,56; -34,6</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>13,0; 27,07</t>
+          <t>13,49; 26,62</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-28,91; -16,07</t>
+          <t>-28,78; -15,57</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-47,28; -37,22</t>
+          <t>-48,08; -36,96</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>23,02; 77,41</t>
+          <t>25,21; 75,93</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-63,46; -34,05</t>
+          <t>-64,54; -36,47</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-94,76; -81,76</t>
+          <t>-94,36; -80,61</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>15,77; 71,3</t>
+          <t>16,37; 70,6</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-59,84; -27,5</t>
+          <t>-58,93; -26,64</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-97,54; -88,32</t>
+          <t>-97,91; -88,98</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>25,61; 63,38</t>
+          <t>27,67; 65,07</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-58,2; -37,98</t>
+          <t>-58,03; -36,57</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-95,58; -88,29</t>
+          <t>-95,52; -88,58</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>26,91; 41,86</t>
+          <t>26,08; 41,76</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>14,96; 30,14</t>
+          <t>15,25; 29,63</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 9,53</t>
+          <t>-3,96; 8,7</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>7,74; 22,86</t>
+          <t>6,49; 22,57</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 12,73</t>
+          <t>-2,75; 12,38</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-13,93; -1,03</t>
+          <t>-14,29; -1,07</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>18,9; 29,97</t>
+          <t>18,68; 30,34</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>8,01; 18,68</t>
+          <t>8,02; 18,52</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 2,24</t>
+          <t>-7,6; 2,01</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>129,83; 315,86</t>
+          <t>127,1; 309,26</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>74,8; 229,26</t>
+          <t>72,49; 213,78</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-16,31; 74,88</t>
+          <t>-19,98; 63,91</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>23,71; 92,57</t>
+          <t>20,44; 92,01</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-12,37; 51,79</t>
+          <t>-8,72; 52,68</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-43,09; -3,75</t>
+          <t>-43,79; -4,26</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>75,24; 151,08</t>
+          <t>72,97; 153,35</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>32,66; 94,13</t>
+          <t>29,93; 90,45</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-28,45; 11,23</t>
+          <t>-29,12; 11,07</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>13,11; 24,02</t>
+          <t>13,08; 23,61</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>9,72; 20,86</t>
+          <t>9,76; 20,12</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>3,7; 14,42</t>
+          <t>2,76; 14,42</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,39; 12,36</t>
+          <t>1,86; 12,84</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,27; 13,05</t>
+          <t>2,06; 13,21</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>2,09; 33,69</t>
+          <t>1,41; 34,09</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>8,64; 16,49</t>
+          <t>8,91; 16,49</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>7,17; 15,18</t>
+          <t>7,86; 14,89</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>4,54; 25,56</t>
+          <t>4,58; 26,04</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>50,44; 115,06</t>
+          <t>49,43; 111,16</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>38,17; 97,39</t>
+          <t>35,63; 94,14</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>13,75; 68,14</t>
+          <t>10,68; 67,72</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>3,77; 40,23</t>
+          <t>5,32; 42,22</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>5,9; 43,43</t>
+          <t>5,69; 43,72</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>6,34; 108,7</t>
+          <t>3,6; 114,24</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>28,31; 62,17</t>
+          <t>29,72; 62,9</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>23,11; 56,85</t>
+          <t>25,98; 56,45</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>14,97; 95,43</t>
+          <t>15,22; 92,53</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-19,14; -9,44</t>
+          <t>-18,87; -9,8</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-15,86; -6,6</t>
+          <t>-15,86; -6,49</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-30,18; -20,69</t>
+          <t>-30,21; -20,86</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-23,97; -14,71</t>
+          <t>-23,73; -14,52</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-19,83; -10,05</t>
+          <t>-19,85; -9,92</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-26,7; -17,66</t>
+          <t>-26,38; -17,6</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-20,01; -13,17</t>
+          <t>-19,98; -13,03</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-16,61; -9,91</t>
+          <t>-16,5; -9,61</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-27,33; -20,27</t>
+          <t>-27,14; -20,21</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-45,53; -25,15</t>
+          <t>-45,17; -26,1</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-38,34; -18,25</t>
+          <t>-37,98; -17,53</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-72,56; -55,44</t>
+          <t>-71,97; -55,87</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-53,12; -36,56</t>
+          <t>-52,53; -35,81</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-43,82; -24,38</t>
+          <t>-44,43; -24,97</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-59,05; -44,22</t>
+          <t>-59,06; -44,06</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-46,98; -33,18</t>
+          <t>-46,71; -33,2</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-38,46; -25,36</t>
+          <t>-38,77; -24,51</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-63,55; -51,64</t>
+          <t>-63,31; -51,33</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>7,9; 12,47</t>
+          <t>7,68; 12,5</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>4,22; 8,55</t>
+          <t>4,34; 8,8</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-13,44; -9,15</t>
+          <t>-13,48; -9,02</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>3,05; 7,64</t>
+          <t>3,06; 7,65</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>0,02; 4,7</t>
+          <t>-0,12; 4,46</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-15,16; -2,98</t>
+          <t>-15,16; -3,26</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>6,15; 9,57</t>
+          <t>6,08; 9,46</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>2,57; 5,91</t>
+          <t>2,68; 5,82</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-13,58; -6,45</t>
+          <t>-13,56; -7,48</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>26,31; 43,88</t>
+          <t>25,32; 44,11</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>13,65; 30,0</t>
+          <t>14,51; 31,0</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-44,57; -32,0</t>
+          <t>-44,01; -31,87</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>8,59; 23,08</t>
+          <t>8,33; 23,07</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>0,11; 14,36</t>
+          <t>-0,34; 13,45</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-43,56; -7,95</t>
+          <t>-43,5; -9,78</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>18,77; 30,56</t>
+          <t>18,54; 30,48</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>7,74; 18,72</t>
+          <t>8,17; 18,79</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-41,78; -20,32</t>
+          <t>-41,73; -22,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P5_R-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,46; 25,29</t>
+          <t>10,34; 25,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,22; -10,51</t>
+          <t>-21,04; -10,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>24,66; 39,17</t>
+          <t>23,66; 39,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,2; -8,02</t>
+          <t>-18,72; -7,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,04; 29,66</t>
+          <t>19,95; 30,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-18,28; -11,13</t>
+          <t>-18,33; -10,97</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>43,22; 163,11</t>
+          <t>45,76; 166,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-92,61; -64,13</t>
+          <t>-93,14; -65,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>118,54; 292,01</t>
+          <t>111,16; 296,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-87,45; -60,85</t>
+          <t>-87,44; -59,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>90,52; 190,88</t>
+          <t>98,43; 200,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-88,11; -70,38</t>
+          <t>-88,23; -70,13</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 11,77</t>
+          <t>-0,65; 12,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,71; 27,54</t>
+          <t>15,51; 27,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-23,99; -12,29</t>
+          <t>-24,47; -12,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 11,53</t>
+          <t>0,02; 12,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,86; 22,51</t>
+          <t>9,49; 22,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,77; -17,88</t>
+          <t>-27,64; -17,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,59; 9,98</t>
+          <t>0,99; 10,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,58; 23,71</t>
+          <t>13,6; 22,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-24,59; -16,79</t>
+          <t>-24,59; -16,86</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 40,07</t>
+          <t>-1,38; 40,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>40,19; 93,65</t>
+          <t>43,17; 92,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-67,79; -39,35</t>
+          <t>-68,08; -40,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 35,04</t>
+          <t>-0,03; 36,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,7; 71,45</t>
+          <t>24,85; 68,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-71,41; -54,8</t>
+          <t>-70,64; -53,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,75; 31,0</t>
+          <t>2,28; 30,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>40,02; 73,72</t>
+          <t>36,69; 70,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-66,87; -51,1</t>
+          <t>-66,7; -51,35</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,87; 30,95</t>
+          <t>16,12; 30,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,11; 16,29</t>
+          <t>2,39; 15,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 8,81</t>
+          <t>-4,11; 9,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,04; 21,53</t>
+          <t>5,63; 21,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,98; -3,37</t>
+          <t>-17,21; -3,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-23,81; -10,75</t>
+          <t>-23,14; -10,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,56; 23,44</t>
+          <t>13,69; 24,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 3,99</t>
+          <t>-5,4; 4,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-12,27; -2,97</t>
+          <t>-12,5; -3,23</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>66,39; 170,7</t>
+          <t>65,88; 174,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,29; 84,04</t>
+          <t>9,87; 86,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-17,32; 46,6</t>
+          <t>-17,44; 49,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,63; 61,21</t>
+          <t>13,43; 62,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,79; -8,9</t>
+          <t>-41,0; -8,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-55,82; -30,45</t>
+          <t>-55,13; -29,96</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>38,08; 86,79</t>
+          <t>41,93; 87,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-17,0; 14,28</t>
+          <t>-16,92; 16,5</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-36,85; -11,1</t>
+          <t>-37,3; -11,2</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,64; 15,53</t>
+          <t>2,13; 14,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 8,46</t>
+          <t>-5,29; 8,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,76; -1,25</t>
+          <t>-15,9; -2,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,04; 23,84</t>
+          <t>12,46; 24,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,53; 18,1</t>
+          <t>4,57; 18,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,65; 0,96</t>
+          <t>-10,45; 1,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,03; 17,72</t>
+          <t>9,12; 17,65</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,27; 11,96</t>
+          <t>2,16; 11,7</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-11,5; -1,71</t>
+          <t>-11,2; -1,63</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,94; 61,22</t>
+          <t>6,16; 57,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-15,24; 32,74</t>
+          <t>-15,92; 33,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-48,01; -4,92</t>
+          <t>-48,52; -7,63</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>41,95; 111,36</t>
+          <t>45,2; 112,88</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>16,0; 84,27</t>
+          <t>16,41; 82,64</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-38,0; 4,79</t>
+          <t>-37,65; 7,59</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>30,41; 73,03</t>
+          <t>28,94; 71,61</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,42; 48,65</t>
+          <t>7,47; 47,1</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-39,29; -6,48</t>
+          <t>-38,39; -6,75</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>13,69; 31,88</t>
+          <t>12,33; 31,74</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-32,98; -15,4</t>
+          <t>-33,55; -15,87</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-49,61; -34,42</t>
+          <t>-49,94; -34,63</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,85; 27,19</t>
+          <t>8,43; 27,47</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-28,68; -10,88</t>
+          <t>-28,87; -11,12</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-49,56; -34,6</t>
+          <t>-49,42; -35,12</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>13,49; 26,62</t>
+          <t>13,69; 27,47</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-28,78; -15,57</t>
+          <t>-28,07; -15,32</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-48,08; -36,96</t>
+          <t>-48,03; -38,05</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>25,21; 75,93</t>
+          <t>23,03; 74,54</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-64,54; -36,47</t>
+          <t>-64,05; -35,99</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-94,36; -80,61</t>
+          <t>-94,46; -82,08</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>16,37; 70,6</t>
+          <t>16,83; 70,3</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-58,93; -26,64</t>
+          <t>-58,4; -27,55</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-97,91; -88,98</t>
+          <t>-97,79; -88,55</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>27,67; 65,07</t>
+          <t>28,08; 66,81</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-58,03; -36,57</t>
+          <t>-57,72; -35,04</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-95,52; -88,58</t>
+          <t>-95,59; -88,8</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>26,08; 41,76</t>
+          <t>26,99; 42,29</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>15,25; 29,63</t>
+          <t>15,38; 30,23</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 8,7</t>
+          <t>-3,57; 8,61</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>6,49; 22,57</t>
+          <t>6,17; 23,79</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 12,38</t>
+          <t>-3,3; 11,95</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-14,29; -1,07</t>
+          <t>-14,08; -1,08</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>18,68; 30,34</t>
+          <t>18,68; 30,03</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>8,02; 18,52</t>
+          <t>7,75; 18,9</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 2,01</t>
+          <t>-7,19; 2,28</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>127,1; 309,26</t>
+          <t>134,96; 322,62</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>72,49; 213,78</t>
+          <t>77,05; 230,91</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-19,98; 63,91</t>
+          <t>-18,44; 60,92</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>20,44; 92,01</t>
+          <t>20,1; 98,8</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 52,68</t>
+          <t>-10,05; 47,3</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-43,79; -4,26</t>
+          <t>-43,49; -4,38</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>72,97; 153,35</t>
+          <t>73,81; 148,47</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>29,93; 90,45</t>
+          <t>31,61; 95,47</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-29,12; 11,07</t>
+          <t>-29,1; 10,97</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>13,08; 23,61</t>
+          <t>13,34; 24,23</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>9,76; 20,12</t>
+          <t>9,99; 20,99</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2,76; 14,42</t>
+          <t>2,43; 14,09</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,86; 12,84</t>
+          <t>1,89; 12,93</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,06; 13,21</t>
+          <t>2,35; 13,2</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,41; 34,09</t>
+          <t>1,62; 32,99</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>8,91; 16,49</t>
+          <t>8,95; 16,16</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>7,86; 14,89</t>
+          <t>7,54; 14,9</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>4,58; 26,04</t>
+          <t>4,64; 25,38</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>49,43; 111,16</t>
+          <t>50,45; 118,36</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>35,63; 94,14</t>
+          <t>38,0; 99,55</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>10,68; 67,72</t>
+          <t>10,18; 66,36</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>5,32; 42,22</t>
+          <t>5,06; 42,65</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>5,69; 43,72</t>
+          <t>6,5; 43,85</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>3,6; 114,24</t>
+          <t>4,7; 105,74</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>29,72; 62,9</t>
+          <t>28,59; 59,9</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>25,98; 56,45</t>
+          <t>24,94; 56,36</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>15,22; 92,53</t>
+          <t>16,01; 91,19</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-18,87; -9,8</t>
+          <t>-18,97; -9,34</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-15,86; -6,49</t>
+          <t>-15,9; -5,99</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-30,21; -20,86</t>
+          <t>-29,84; -20,22</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-23,73; -14,52</t>
+          <t>-23,66; -14,05</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-19,85; -9,92</t>
+          <t>-19,94; -10,09</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-26,38; -17,6</t>
+          <t>-26,76; -17,81</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-19,98; -13,03</t>
+          <t>-20,01; -13,35</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-16,5; -9,61</t>
+          <t>-16,6; -9,68</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-27,14; -20,21</t>
+          <t>-27,06; -20,41</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-45,17; -26,1</t>
+          <t>-45,85; -25,32</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-37,98; -17,53</t>
+          <t>-38,27; -15,79</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-71,97; -55,87</t>
+          <t>-71,53; -55,08</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-52,53; -35,81</t>
+          <t>-52,7; -35,1</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-44,43; -24,97</t>
+          <t>-44,74; -25,31</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-59,06; -44,06</t>
+          <t>-59,1; -43,73</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-46,71; -33,2</t>
+          <t>-46,73; -33,86</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-38,77; -24,51</t>
+          <t>-38,85; -24,64</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-63,31; -51,33</t>
+          <t>-63,5; -51,76</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>7,68; 12,5</t>
+          <t>8,05; 12,53</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>4,34; 8,8</t>
+          <t>4,25; 8,66</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-13,48; -9,02</t>
+          <t>-13,47; -9,12</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>3,06; 7,65</t>
+          <t>3,08; 7,91</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 4,46</t>
+          <t>-0,05; 4,51</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-15,16; -3,26</t>
+          <t>-15,35; -4,5</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>6,08; 9,46</t>
+          <t>6,15; 9,51</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>2,68; 5,82</t>
+          <t>2,7; 5,86</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-13,56; -7,48</t>
+          <t>-13,71; -7,79</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>25,32; 44,11</t>
+          <t>26,46; 44,43</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>14,51; 31,0</t>
+          <t>13,61; 30,18</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-44,01; -31,87</t>
+          <t>-44,29; -32,28</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>8,33; 23,07</t>
+          <t>8,65; 23,61</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 13,45</t>
+          <t>-0,1; 13,64</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-43,5; -9,78</t>
+          <t>-43,93; -12,15</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>18,54; 30,48</t>
+          <t>18,68; 30,49</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>8,17; 18,79</t>
+          <t>8,18; 18,88</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-41,73; -22,75</t>
+          <t>-42,09; -23,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P5_R-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con algún problema medioambiental importante en la zona de residencia</t>
+          <t>Población con algún problema medioambiental en la zona de residencia</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,34; 25,56</t>
+          <t>10,32; 25,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,04; -10,82</t>
+          <t>-20,43; -10,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,66; 39,36</t>
+          <t>23,63; 39,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,72; -7,99</t>
+          <t>-18,93; -8,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,95; 30,22</t>
+          <t>19,16; 30,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-18,33; -10,97</t>
+          <t>-18,01; -10,58</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>45,76; 166,28</t>
+          <t>46,75; 175,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-93,14; -65,35</t>
+          <t>-93,37; -67,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>111,16; 296,98</t>
+          <t>109,55; 304,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-87,44; -59,91</t>
+          <t>-88,28; -60,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>98,43; 200,13</t>
+          <t>95,91; 194,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-88,23; -70,13</t>
+          <t>-87,77; -69,66</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 12,43</t>
+          <t>-0,78; 12,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,51; 27,72</t>
+          <t>15,62; 27,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-24,47; -12,36</t>
+          <t>-23,56; -11,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,02; 12,25</t>
+          <t>0,43; 11,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,49; 22,16</t>
+          <t>9,8; 22,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,64; -17,75</t>
+          <t>-27,56; -17,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 10,16</t>
+          <t>1,31; 10,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,6; 22,64</t>
+          <t>13,39; 22,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-24,59; -16,86</t>
+          <t>-24,58; -16,18</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 40,53</t>
+          <t>-1,65; 41,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>43,17; 92,81</t>
+          <t>42,46; 95,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-68,08; -40,02</t>
+          <t>-67,2; -38,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 36,56</t>
+          <t>1,11; 35,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,85; 68,09</t>
+          <t>25,51; 67,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-70,64; -53,81</t>
+          <t>-71,17; -52,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,28; 30,98</t>
+          <t>3,65; 32,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>36,69; 70,04</t>
+          <t>36,16; 70,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-66,7; -51,35</t>
+          <t>-67,03; -50,39</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,12; 30,93</t>
+          <t>15,51; 30,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,39; 15,74</t>
+          <t>1,92; 15,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 9,08</t>
+          <t>-4,37; 8,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,63; 21,5</t>
+          <t>6,08; 21,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,21; -3,05</t>
+          <t>-17,62; -3,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-23,14; -10,8</t>
+          <t>-23,74; -11,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,69; 24,39</t>
+          <t>13,54; 23,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 4,58</t>
+          <t>-5,65; 4,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-12,5; -3,23</t>
+          <t>-12,37; -3,29</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>65,88; 174,08</t>
+          <t>60,23; 173,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,87; 86,47</t>
+          <t>6,84; 89,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-17,44; 49,2</t>
+          <t>-17,59; 46,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,43; 62,58</t>
+          <t>14,52; 59,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,0; -8,81</t>
+          <t>-42,11; -8,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-55,13; -29,96</t>
+          <t>-55,48; -31,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>41,93; 87,22</t>
+          <t>40,55; 85,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-16,92; 16,5</t>
+          <t>-17,33; 15,58</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-37,3; -11,2</t>
+          <t>-36,9; -11,64</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,13; 14,9</t>
+          <t>2,56; 15,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 8,68</t>
+          <t>-5,59; 8,41</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,9; -2,11</t>
+          <t>-16,25; -2,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,46; 24,0</t>
+          <t>12,22; 23,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,57; 18,25</t>
+          <t>4,25; 18,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,45; 1,68</t>
+          <t>-10,31; 1,54</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,12; 17,65</t>
+          <t>9,37; 17,66</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,16; 11,7</t>
+          <t>1,56; 11,11</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-11,2; -1,63</t>
+          <t>-11,35; -2,02</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>6,16; 57,19</t>
+          <t>7,92; 60,09</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-15,92; 33,2</t>
+          <t>-16,75; 32,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-48,52; -7,63</t>
+          <t>-49,18; -7,63</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>45,2; 112,88</t>
+          <t>44,79; 110,87</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>16,41; 82,64</t>
+          <t>16,23; 85,46</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-37,65; 7,59</t>
+          <t>-37,04; 7,77</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>28,94; 71,61</t>
+          <t>31,82; 72,64</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,47; 47,1</t>
+          <t>5,28; 44,71</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-38,39; -6,75</t>
+          <t>-39,42; -7,54</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>12,33; 31,74</t>
+          <t>12,12; 32,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-33,55; -15,87</t>
+          <t>-32,09; -14,12</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-49,94; -34,63</t>
+          <t>-49,9; -35,04</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>8,43; 27,47</t>
+          <t>7,77; 27,35</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-28,87; -11,12</t>
+          <t>-29,52; -10,93</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-49,42; -35,12</t>
+          <t>-49,11; -35,34</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>13,69; 27,47</t>
+          <t>13,0; 27,07</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-28,07; -15,32</t>
+          <t>-28,91; -16,07</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-48,03; -38,05</t>
+          <t>-47,28; -37,22</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>23,03; 74,54</t>
+          <t>23,02; 77,41</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-64,05; -35,99</t>
+          <t>-63,46; -34,05</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-94,46; -82,08</t>
+          <t>-94,76; -81,76</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>16,83; 70,3</t>
+          <t>15,77; 71,3</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-58,4; -27,55</t>
+          <t>-59,84; -27,5</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-97,79; -88,55</t>
+          <t>-97,54; -88,32</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>28,08; 66,81</t>
+          <t>25,61; 63,38</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-57,72; -35,04</t>
+          <t>-58,2; -37,98</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-95,59; -88,8</t>
+          <t>-95,58; -88,29</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>26,99; 42,29</t>
+          <t>26,91; 41,86</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>15,38; 30,23</t>
+          <t>14,96; 30,14</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 8,61</t>
+          <t>-3,29; 9,53</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>6,17; 23,79</t>
+          <t>7,74; 22,86</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 11,95</t>
+          <t>-3,81; 12,73</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-14,08; -1,08</t>
+          <t>-13,93; -1,03</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>18,68; 30,03</t>
+          <t>18,9; 29,97</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>7,75; 18,9</t>
+          <t>8,01; 18,68</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 2,28</t>
+          <t>-7,06; 2,24</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>134,96; 322,62</t>
+          <t>129,83; 315,86</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>77,05; 230,91</t>
+          <t>74,8; 229,26</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-18,44; 60,92</t>
+          <t>-16,31; 74,88</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>20,1; 98,8</t>
+          <t>23,71; 92,57</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 47,3</t>
+          <t>-12,37; 51,79</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-43,49; -4,38</t>
+          <t>-43,09; -3,75</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>73,81; 148,47</t>
+          <t>75,24; 151,08</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>31,61; 95,47</t>
+          <t>32,66; 94,13</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-29,1; 10,97</t>
+          <t>-28,45; 11,23</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>13,34; 24,23</t>
+          <t>13,11; 24,02</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>9,99; 20,99</t>
+          <t>9,72; 20,86</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2,43; 14,09</t>
+          <t>3,7; 14,42</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,89; 12,93</t>
+          <t>1,39; 12,36</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,35; 13,2</t>
+          <t>2,27; 13,05</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,62; 32,99</t>
+          <t>2,09; 33,69</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>8,95; 16,16</t>
+          <t>8,64; 16,49</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>7,54; 14,9</t>
+          <t>7,17; 15,18</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>4,64; 25,38</t>
+          <t>4,54; 25,56</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>50,45; 118,36</t>
+          <t>50,44; 115,06</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>38,0; 99,55</t>
+          <t>38,17; 97,39</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>10,18; 66,36</t>
+          <t>13,75; 68,14</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>5,06; 42,65</t>
+          <t>3,77; 40,23</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>6,5; 43,85</t>
+          <t>5,9; 43,43</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>4,7; 105,74</t>
+          <t>6,34; 108,7</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>28,59; 59,9</t>
+          <t>28,31; 62,17</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>24,94; 56,36</t>
+          <t>23,11; 56,85</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>16,01; 91,19</t>
+          <t>14,97; 95,43</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-18,97; -9,34</t>
+          <t>-19,14; -9,44</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-15,9; -5,99</t>
+          <t>-15,86; -6,6</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-29,84; -20,22</t>
+          <t>-30,18; -20,69</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-23,66; -14,05</t>
+          <t>-23,97; -14,71</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-19,94; -10,09</t>
+          <t>-19,83; -10,05</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-26,76; -17,81</t>
+          <t>-26,7; -17,66</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-20,01; -13,35</t>
+          <t>-20,01; -13,17</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-16,6; -9,68</t>
+          <t>-16,61; -9,91</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-27,06; -20,41</t>
+          <t>-27,33; -20,27</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-45,85; -25,32</t>
+          <t>-45,53; -25,15</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-38,27; -15,79</t>
+          <t>-38,34; -18,25</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-71,53; -55,08</t>
+          <t>-72,56; -55,44</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-52,7; -35,1</t>
+          <t>-53,12; -36,56</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-44,74; -25,31</t>
+          <t>-43,82; -24,38</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-59,1; -43,73</t>
+          <t>-59,05; -44,22</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-46,73; -33,86</t>
+          <t>-46,98; -33,18</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-38,85; -24,64</t>
+          <t>-38,46; -25,36</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-63,5; -51,76</t>
+          <t>-63,55; -51,64</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>8,05; 12,53</t>
+          <t>7,9; 12,47</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>4,25; 8,66</t>
+          <t>4,22; 8,55</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-13,47; -9,12</t>
+          <t>-13,44; -9,15</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>3,08; 7,91</t>
+          <t>3,05; 7,64</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 4,51</t>
+          <t>0,02; 4,7</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-15,35; -4,5</t>
+          <t>-15,16; -2,98</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>6,15; 9,51</t>
+          <t>6,15; 9,57</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>2,7; 5,86</t>
+          <t>2,57; 5,91</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-13,71; -7,79</t>
+          <t>-13,58; -6,45</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>26,46; 44,43</t>
+          <t>26,31; 43,88</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>13,61; 30,18</t>
+          <t>13,65; 30,0</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-44,29; -32,28</t>
+          <t>-44,57; -32,0</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>8,65; 23,61</t>
+          <t>8,59; 23,08</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 13,64</t>
+          <t>0,11; 14,36</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-43,93; -12,15</t>
+          <t>-43,56; -7,95</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>18,68; 30,49</t>
+          <t>18,77; 30,56</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>8,18; 18,88</t>
+          <t>7,74; 18,72</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-42,09; -23,5</t>
+          <t>-41,78; -20,32</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P5_R-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>26,04</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-15,67</t>
+          <t>-15,58</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>28,46</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-13,13</t>
+          <t>-13,18</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>27,22</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,05; 33,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-20,43; -10,44</t>
+          <t>-20,44; -10,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,4; 35,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,93; -8,55</t>
+          <t>-18,96; -8,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,01; 33,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-18,01; -10,58</t>
+          <t>-18,05; -10,51</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>139,74%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-84,09%</t>
+          <t>-83,62%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>168,78%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-77,9%</t>
+          <t>-78,15%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>153,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-81,13%</t>
+          <t>-81,11%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>83,41; 223,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-93,37; -67,63</t>
+          <t>-93,17; -65,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>97,31; 267,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-88,28; -60,28</t>
+          <t>-88,5; -59,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>103,9; 215,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-87,77; -69,66</t>
+          <t>-88,05; -68,86</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-18,37</t>
+          <t>-18,38</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-22,67</t>
+          <t>-22,66</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-20,56</t>
+          <t>-20,54</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-23,56; -11,64</t>
+          <t>-23,61; -11,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,56; -17,45</t>
+          <t>-27,57; -17,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-24,58; -16,18</t>
+          <t>-24,53; -16,08</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-55,75%</t>
+          <t>-55,76%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-62,91%</t>
+          <t>-62,9%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-59,57%</t>
+          <t>-59,5%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-67,2; -38,78</t>
+          <t>-67,43; -38,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-71,17; -52,86</t>
+          <t>-71,22; -53,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-67,03; -50,39</t>
+          <t>-66,93; -49,84</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-17,19</t>
+          <t>-17,25</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-7,82</t>
+          <t>-7,86</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 8,63</t>
+          <t>-4,23; 8,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-23,74; -11,3</t>
+          <t>-23,74; -11,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-12,37; -3,29</t>
+          <t>-12,48; -3,33</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-44,32%</t>
+          <t>-44,48%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-25,67%</t>
+          <t>-25,81%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-17,59; 46,25</t>
+          <t>-17,82; 45,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-55,48; -31,57</t>
+          <t>-55,61; -31,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-36,9; -11,64</t>
+          <t>-37,16; -11,94</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,59</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-8,8</t>
+          <t>-8,77</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18,17</t>
+          <t>16,34</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,68</t>
+          <t>-8,14</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>13,43</t>
+          <t>9,99</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-6,74</t>
+          <t>-8,84</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,56; 15,1</t>
+          <t>-3,33; 10,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-16,25; -2,33</t>
+          <t>-16,27; -2,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,22; 23,65</t>
+          <t>9,88; 22,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,31; 1,54</t>
+          <t>-16,38; -1,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,37; 17,66</t>
+          <t>5,13; 14,69</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-11,35; -2,02</t>
+          <t>-14,96; -3,98</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>29,15%</t>
+          <t>11,56%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-29,86%</t>
+          <t>-29,76%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>73,78%</t>
+          <t>66,32%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-18,98%</t>
+          <t>-33,03%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>49,75%</t>
+          <t>36,99%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-24,97%</t>
+          <t>-32,74%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,92; 60,09</t>
+          <t>-9,76; 40,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-49,18; -7,63</t>
+          <t>-49,91; -7,5</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>44,79; 110,87</t>
+          <t>36,4; 108,23</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-37,04; 7,77</t>
+          <t>-59,38; -6,63</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>31,82; 72,64</t>
+          <t>17,15; 59,02</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-39,42; -7,54</t>
+          <t>-51,31; -16,29</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-42,26</t>
+          <t>-42,29</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-42,25</t>
+          <t>-42,41</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-42,41</t>
+          <t>-42,58</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-49,9; -35,04</t>
+          <t>-49,97; -35,12</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-49,11; -35,34</t>
+          <t>-49,35; -35,38</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-47,28; -37,22</t>
+          <t>-47,6; -37,43</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-89,86%</t>
+          <t>-89,93%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-95,06%</t>
+          <t>-95,44%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-92,78%</t>
+          <t>-93,15%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-94,76; -81,76</t>
+          <t>-94,8; -81,95</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-97,54; -88,32</t>
+          <t>-98,0; -89,13</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-95,58; -88,29</t>
+          <t>-96,17; -88,83</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2,71</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-7,52</t>
+          <t>-7,69</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-2,48</t>
+          <t>-2,71</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 9,53</t>
+          <t>-3,54; 9,31</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-13,93; -1,03</t>
+          <t>-14,11; -1,28</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 2,24</t>
+          <t>-7,28; 2,02</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>16,12%</t>
+          <t>14,58%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-26,52%</t>
+          <t>-27,11%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-10,95%</t>
+          <t>-11,96%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-16,31; 74,88</t>
+          <t>-17,52; 73,11</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-43,09; -3,75</t>
+          <t>-43,36; -4,45</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-28,45; 11,23</t>
+          <t>-29,15; 10,5</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>8,72</t>
+          <t>9,08</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>12,03</t>
+          <t>18,46</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>11,07</t>
+          <t>15,12</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>3,7; 14,42</t>
+          <t>3,69; 14,93</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>2,09; 33,69</t>
+          <t>1,96; 44,16</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>4,54; 25,56</t>
+          <t>4,57; 36,21</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>36,95%</t>
+          <t>38,51%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>36,41%</t>
+          <t>55,88%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>38,98%</t>
+          <t>53,24%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>13,75; 68,14</t>
+          <t>13,68; 71,38</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>6,34; 108,7</t>
+          <t>5,4; 141,75</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>14,97; 95,43</t>
+          <t>15,36; 132,04</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-25,06</t>
+          <t>-28,03</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-22,18</t>
+          <t>-22,14</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-23,65</t>
+          <t>-25,71</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-30,18; -20,69</t>
+          <t>-36,31; -22,38</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-26,7; -17,66</t>
+          <t>-26,71; -17,76</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-27,33; -20,27</t>
+          <t>-32,77; -21,62</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-63,66%</t>
+          <t>-71,19%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-52,12%</t>
+          <t>-52,01%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-57,67%</t>
+          <t>-62,69%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-72,56; -55,44</t>
+          <t>-87,98; -58,35</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-59,05; -44,22</t>
+          <t>-58,84; -44,14</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-63,55; -51,64</t>
+          <t>-76,97; -54,2</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-11,32</t>
+          <t>-12,34</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-12,17</t>
+          <t>-10,83</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>-11,66</t>
+          <t>-11,51</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-13,44; -9,15</t>
+          <t>-16,77; -9,93</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-15,16; -2,98</t>
+          <t>-16,03; 5,24</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-13,58; -6,45</t>
+          <t>-14,57; -2,46</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-38,34%</t>
+          <t>-41,79%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-35,38%</t>
+          <t>-31,46%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>-36,43%</t>
+          <t>-35,96%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-44,57; -32,0</t>
+          <t>-55,31; -34,35</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-43,56; -7,95</t>
+          <t>-46,18; 16,12</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-41,78; -20,32</t>
+          <t>-45,02; -7,62</t>
         </is>
       </c>
     </row>
